--- a/app/src_Data/SheetData/4/workbook_data.xlsx
+++ b/app/src_Data/SheetData/4/workbook_data.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
           <t>根茎生长/cm</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>天气数据_综合温度</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -468,6 +473,11 @@
           <t>0.7</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -485,6 +495,11 @@
           <t>0.6</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -502,6 +517,11 @@
           <t>0.65</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -519,6 +539,11 @@
           <t>0.7</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -536,6 +561,11 @@
           <t>0.7</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -553,6 +583,11 @@
           <t>0.7</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -570,6 +605,11 @@
           <t>0.7</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -587,6 +627,11 @@
           <t>0.7</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -604,6 +649,11 @@
           <t>0.2</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -621,6 +671,11 @@
           <t>0.4</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -638,6 +693,11 @@
           <t>0.6</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -655,6 +715,11 @@
           <t>0.8</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -672,6 +737,11 @@
           <t>0.8</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -689,6 +759,11 @@
           <t>0.8</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -706,6 +781,11 @@
           <t>0.8</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -723,6 +803,11 @@
           <t>0.8</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -740,6 +825,11 @@
           <t>0.8</t>
         </is>
       </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -757,6 +847,11 @@
           <t>0.8</t>
         </is>
       </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -774,6 +869,11 @@
           <t>0.8</t>
         </is>
       </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -789,6 +889,11 @@
       <c r="C21" t="inlineStr">
         <is>
           <t>0.8</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>19</t>
         </is>
       </c>
     </row>
